--- a/Data_preparation/datasets/final_data/PTC_INC.xlsx
+++ b/Data_preparation/datasets/final_data/PTC_INC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,114 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>ZBRA</t>
-  </si>
-  <si>
-    <t>TRI</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>CDNS</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>META</t>
-  </si>
-  <si>
-    <t>PEGA</t>
-  </si>
-  <si>
-    <t>HPE</t>
-  </si>
-  <si>
-    <t>CYBR</t>
-  </si>
-  <si>
-    <t>ORCL</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>EBAY</t>
-  </si>
-  <si>
-    <t>TSM</t>
-  </si>
-  <si>
-    <t>VRNT</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>OKTA</t>
-  </si>
-  <si>
-    <t>SNAP</t>
-  </si>
-  <si>
-    <t>MCHP</t>
-  </si>
-  <si>
-    <t>DOCU</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>CSCO</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>STNE</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>DXC</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>INFA</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>AMBA</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>NTAP</t>
   </si>
 </sst>
 </file>
@@ -760,22 +652,22 @@
         <v>42007</v>
       </c>
       <c r="D2">
-        <v>77.98999786376953</v>
+        <v>36.86999893188477</v>
       </c>
       <c r="E2">
-        <v>83.45999908447266</v>
+        <v>33.40999984741211</v>
       </c>
       <c r="F2">
-        <v>85.66000366210938</v>
+        <v>36.97999954223633</v>
       </c>
       <c r="G2">
-        <v>74.40000152587891</v>
+        <v>31.14999961853028</v>
       </c>
       <c r="H2">
-        <v>50845151</v>
+        <v>119792704</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>4216425338</v>
@@ -888,22 +780,22 @@
         <v>42098</v>
       </c>
       <c r="D3">
-        <v>32.50155454136809</v>
+        <v>36.13000106811523</v>
       </c>
       <c r="E3">
-        <v>32.94282531738281</v>
+        <v>38.34000015258789</v>
       </c>
       <c r="F3">
-        <v>34.21047339167337</v>
+        <v>38.84999847412109</v>
       </c>
       <c r="G3">
-        <v>32.26888374560449</v>
+        <v>35.72000122070312</v>
       </c>
       <c r="H3">
-        <v>450687724</v>
+        <v>119792704</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>4195983930</v>
@@ -1016,22 +908,22 @@
         <v>42189</v>
       </c>
       <c r="D4">
-        <v>19.36546186976121</v>
+        <v>41.27000045776367</v>
       </c>
       <c r="E4">
-        <v>20.08906555175781</v>
+        <v>36.34999847412109</v>
       </c>
       <c r="F4">
-        <v>20.242831549833</v>
+        <v>41.79999923706055</v>
       </c>
       <c r="G4">
-        <v>19.17551655018982</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>174270076</v>
+        <v>119792704</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>4734575067</v>
@@ -1144,22 +1036,22 @@
         <v>42277</v>
       </c>
       <c r="D5">
-        <v>20.73999977111816</v>
+        <v>31.76000022888184</v>
       </c>
       <c r="E5">
-        <v>22.21999931335449</v>
+        <v>35.43999862670898</v>
       </c>
       <c r="F5">
-        <v>23.29999923706055</v>
+        <v>35.70999908447266</v>
       </c>
       <c r="G5">
-        <v>20.07999992370605</v>
+        <v>30.53000068664551</v>
       </c>
       <c r="H5">
-        <v>272490000</v>
+        <v>119792704</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>3623716442</v>
@@ -1260,22 +1152,22 @@
         <v>42371</v>
       </c>
       <c r="D6">
-        <v>6.107999801635742</v>
+        <v>34.20000076293945</v>
       </c>
       <c r="E6">
-        <v>5.627999782562256</v>
+        <v>29.61000061035156</v>
       </c>
       <c r="F6">
-        <v>6.197999954223633</v>
+        <v>34.20000076293945</v>
       </c>
       <c r="G6">
-        <v>4.728000164031982</v>
+        <v>28.75</v>
       </c>
       <c r="H6">
-        <v>766266033</v>
+        <v>119792704</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>3966155269</v>
@@ -1376,22 +1268,22 @@
         <v>42462</v>
       </c>
       <c r="D7">
-        <v>113.053060611574</v>
+        <v>32.84999847412109</v>
       </c>
       <c r="E7">
-        <v>116.8595962524414</v>
+        <v>36.45999908447266</v>
       </c>
       <c r="F7">
-        <v>120.0499278661556</v>
+        <v>38.5</v>
       </c>
       <c r="G7">
-        <v>105.6586426163339</v>
+        <v>31.57999992370605</v>
       </c>
       <c r="H7">
-        <v>2168962480</v>
+        <v>119792704</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>3779545638</v>
@@ -1492,22 +1384,22 @@
         <v>42553</v>
       </c>
       <c r="D8">
-        <v>13.19996774679334</v>
+        <v>37.58000183105469</v>
       </c>
       <c r="E8">
-        <v>13.69067287445068</v>
+        <v>39.72999954223633</v>
       </c>
       <c r="F8">
-        <v>14.06851604737382</v>
+        <v>41.40999984741211</v>
       </c>
       <c r="G8">
-        <v>12.75833331909089</v>
+        <v>36.56999969482422</v>
       </c>
       <c r="H8">
-        <v>171080665</v>
+        <v>119792704</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>4344193735</v>
@@ -1620,22 +1512,22 @@
         <v>42643</v>
       </c>
       <c r="D9">
-        <v>10.08891169552178</v>
+        <v>45.02000045776367</v>
       </c>
       <c r="E9">
-        <v>10.03531837463379</v>
+        <v>47.43999862670898</v>
       </c>
       <c r="F9">
-        <v>10.24075858308116</v>
+        <v>47.63999938964844</v>
       </c>
       <c r="G9">
-        <v>9.423462821204105</v>
+        <v>43.09999847412109</v>
       </c>
       <c r="H9">
-        <v>1319450062</v>
+        <v>119792704</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>5093703772</v>
@@ -1736,22 +1628,22 @@
         <v>42735</v>
       </c>
       <c r="D10">
-        <v>45.97999954223633</v>
+        <v>46.59000015258789</v>
       </c>
       <c r="E10">
-        <v>53.06000137329102</v>
+        <v>52.56999969482422</v>
       </c>
       <c r="F10">
-        <v>53.20000076293945</v>
+        <v>54.13000106811523</v>
       </c>
       <c r="G10">
-        <v>45.61000061035156</v>
+        <v>45.93000030517578</v>
       </c>
       <c r="H10">
-        <v>50476952</v>
+        <v>119792704</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>5349002216</v>
@@ -1852,22 +1744,22 @@
         <v>42826</v>
       </c>
       <c r="D11">
-        <v>39.22581140273195</v>
+        <v>52.79000091552734</v>
       </c>
       <c r="E11">
-        <v>39.47163009643555</v>
+        <v>54.04999923706055</v>
       </c>
       <c r="F11">
-        <v>39.55064372641578</v>
+        <v>54.31999969482422</v>
       </c>
       <c r="G11">
-        <v>38.41811614637533</v>
+        <v>51</v>
       </c>
       <c r="H11">
-        <v>2850792605</v>
+        <v>119792704</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>6081164194</v>
@@ -1968,22 +1860,22 @@
         <v>42917</v>
       </c>
       <c r="D12">
-        <v>102.0133622053498</v>
+        <v>55.40000152587891</v>
       </c>
       <c r="E12">
-        <v>96.09502410888672</v>
+        <v>55.18999862670898</v>
       </c>
       <c r="F12">
-        <v>103.6407392657914</v>
+        <v>59.29000091552734</v>
       </c>
       <c r="G12">
-        <v>95.4108561422248</v>
+        <v>53.45999908447266</v>
       </c>
       <c r="H12">
-        <v>931519242</v>
+        <v>119792704</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>6367553293</v>
@@ -2084,22 +1976,22 @@
         <v>43008</v>
       </c>
       <c r="D13">
-        <v>34.39338093652559</v>
+        <v>56.36999893188477</v>
       </c>
       <c r="E13">
-        <v>33.61638259887695</v>
+        <v>66.44999694824219</v>
       </c>
       <c r="F13">
-        <v>35.08107037354011</v>
+        <v>66.94999694824219</v>
       </c>
       <c r="G13">
-        <v>32.32138309818511</v>
+        <v>55.7400016784668</v>
       </c>
       <c r="H13">
-        <v>457000000</v>
+        <v>119792704</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>6506392126</v>
@@ -2200,22 +2092,22 @@
         <v>43099</v>
       </c>
       <c r="D14">
-        <v>8.751999855041504</v>
+        <v>60.90999984741211</v>
       </c>
       <c r="E14">
-        <v>9.208000183105469</v>
+        <v>72.68000030517578</v>
       </c>
       <c r="F14">
-        <v>9.28600025177002</v>
+        <v>74.87999725341797</v>
       </c>
       <c r="G14">
-        <v>8.696000099182129</v>
+        <v>60.45000076293945</v>
       </c>
       <c r="H14">
-        <v>766266033</v>
+        <v>119792704</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>7056933083</v>
@@ -2316,22 +2208,22 @@
         <v>43190</v>
       </c>
       <c r="D15">
-        <v>35.97240561616163</v>
+        <v>77.62000274658203</v>
       </c>
       <c r="E15">
-        <v>31.91368293762207</v>
+        <v>82.34999847412109</v>
       </c>
       <c r="F15">
-        <v>36.75260893317965</v>
+        <v>86.48999786376953</v>
       </c>
       <c r="G15">
-        <v>31.53188151649943</v>
+        <v>74.76999664306641</v>
       </c>
       <c r="H15">
-        <v>5186523104</v>
+        <v>119792704</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>9071348384</v>
@@ -2432,22 +2324,22 @@
         <v>43281</v>
       </c>
       <c r="D16">
-        <v>22.36372947692871</v>
+        <v>93.9499969482422</v>
       </c>
       <c r="E16">
-        <v>22.87315368652344</v>
+        <v>91.91000366210938</v>
       </c>
       <c r="F16">
-        <v>25.01273536682129</v>
+        <v>99.87000274658205</v>
       </c>
       <c r="G16">
-        <v>22.00713157653809</v>
+        <v>90.45999908447266</v>
       </c>
       <c r="H16">
-        <v>60308678</v>
+        <v>119792704</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>10824370604</v>
@@ -2548,22 +2440,22 @@
         <v>43373</v>
       </c>
       <c r="D17">
-        <v>40.01662959399956</v>
+        <v>106.9800033569336</v>
       </c>
       <c r="E17">
-        <v>40.09360122680664</v>
+        <v>82.41000366210938</v>
       </c>
       <c r="F17">
-        <v>42.52247987457982</v>
+        <v>107.4400024414062</v>
       </c>
       <c r="G17">
-        <v>36.22792094161961</v>
+        <v>77.33000183105469</v>
       </c>
       <c r="H17">
-        <v>4757218036</v>
+        <v>119792704</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>12512337223</v>
@@ -2676,22 +2568,22 @@
         <v>43463</v>
       </c>
       <c r="D18">
-        <v>42.82212632249508</v>
+        <v>80.87999725341797</v>
       </c>
       <c r="E18">
-        <v>46.75239944458008</v>
+        <v>84.79000091552734</v>
       </c>
       <c r="F18">
-        <v>46.95784665825049</v>
+        <v>89.33000183105469</v>
       </c>
       <c r="G18">
-        <v>41.83955640128374</v>
+        <v>77.26000213623047</v>
       </c>
       <c r="H18">
-        <v>450687724</v>
+        <v>119792704</v>
       </c>
       <c r="I18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>9771719262</v>
@@ -2804,22 +2696,22 @@
         <v>43554</v>
       </c>
       <c r="D19">
-        <v>83.62000274658203</v>
+        <v>93.1999969482422</v>
       </c>
       <c r="E19">
-        <v>104.0299987792969</v>
+        <v>90.47000122070312</v>
       </c>
       <c r="F19">
-        <v>104.9800033569336</v>
+        <v>102.4700012207031</v>
       </c>
       <c r="G19">
-        <v>82.03099822998047</v>
+        <v>89.76999664306641</v>
       </c>
       <c r="H19">
-        <v>168459019</v>
+        <v>119792704</v>
       </c>
       <c r="I19" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>10935103230</v>
@@ -2920,22 +2812,22 @@
         <v>43645</v>
       </c>
       <c r="D20">
-        <v>14.72999954223633</v>
+        <v>91.40000152587891</v>
       </c>
       <c r="E20">
-        <v>16.79999923706055</v>
+        <v>67.77999877929688</v>
       </c>
       <c r="F20">
-        <v>18.36000061035156</v>
+        <v>93.33999633789062</v>
       </c>
       <c r="G20">
-        <v>13.96000003814697</v>
+        <v>66.73000335693359</v>
       </c>
       <c r="H20">
-        <v>1435682333</v>
+        <v>119792704</v>
       </c>
       <c r="I20" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>10326155558</v>
@@ -3036,22 +2928,22 @@
         <v>43738</v>
       </c>
       <c r="D21">
-        <v>42.51583583355016</v>
+        <v>68.69000244140625</v>
       </c>
       <c r="E21">
-        <v>42.25590896606445</v>
+        <v>66.91000366210938</v>
       </c>
       <c r="F21">
-        <v>43.8557984628152</v>
+        <v>77.75</v>
       </c>
       <c r="G21">
-        <v>39.92553545962458</v>
+        <v>62.18999862670898</v>
       </c>
       <c r="H21">
-        <v>539679667</v>
+        <v>119792704</v>
       </c>
       <c r="I21" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>7852936810</v>
@@ -3164,22 +3056,22 @@
         <v>43827</v>
       </c>
       <c r="D22">
-        <v>74.30999755859375</v>
+        <v>75.43000030517578</v>
       </c>
       <c r="E22">
-        <v>78.51000213623047</v>
+        <v>83.12000274658203</v>
       </c>
       <c r="F22">
-        <v>80.26000213623047</v>
+        <v>88.86000061035156</v>
       </c>
       <c r="G22">
-        <v>70.55000305175781</v>
+        <v>74.61000061035156</v>
       </c>
       <c r="H22">
-        <v>201104117</v>
+        <v>119792704</v>
       </c>
       <c r="I22" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>8752039458</v>
@@ -3292,22 +3184,22 @@
         <v>43918</v>
       </c>
       <c r="D23">
-        <v>26.5</v>
+        <v>58.61999893188477</v>
       </c>
       <c r="E23">
-        <v>30.27000045776367</v>
+        <v>69.25</v>
       </c>
       <c r="F23">
-        <v>32</v>
+        <v>71.27999877929688</v>
       </c>
       <c r="G23">
-        <v>21.67000007629395</v>
+        <v>52.95999908447266</v>
       </c>
       <c r="H23">
-        <v>2085418676</v>
+        <v>119792704</v>
       </c>
       <c r="I23" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>6815328970</v>
@@ -3408,22 +3300,22 @@
         <v>44009</v>
       </c>
       <c r="D24">
-        <v>256.4700012207031</v>
+        <v>77.93000030517578</v>
       </c>
       <c r="E24">
-        <v>280.75</v>
+        <v>85.55999755859375</v>
       </c>
       <c r="F24">
-        <v>287.8299865722656</v>
+        <v>88.80000305175781</v>
       </c>
       <c r="G24">
-        <v>250.9499969482422</v>
+        <v>76.15000152587891</v>
       </c>
       <c r="H24">
-        <v>50845151</v>
+        <v>119792704</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>8738475903</v>
@@ -3524,22 +3416,22 @@
         <v>44104</v>
       </c>
       <c r="D25">
-        <v>142.1999969482422</v>
+        <v>83.66000366210938</v>
       </c>
       <c r="E25">
-        <v>135.75</v>
+        <v>83.87999725341797</v>
       </c>
       <c r="F25">
-        <v>158.7359924316406</v>
+        <v>89.44999694824219</v>
       </c>
       <c r="G25">
-        <v>133.8099975585938</v>
+        <v>79.36000061035156</v>
       </c>
       <c r="H25">
-        <v>158300823</v>
+        <v>119792704</v>
       </c>
       <c r="I25" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>9605278644</v>
@@ -3652,22 +3544,22 @@
         <v>44196</v>
       </c>
       <c r="D26">
-        <v>29.91399955749512</v>
+        <v>120.0699996948242</v>
       </c>
       <c r="E26">
-        <v>28.95000076293945</v>
+        <v>132.9100036621094</v>
       </c>
       <c r="F26">
-        <v>31.0620002746582</v>
+        <v>141.6699981689453</v>
       </c>
       <c r="G26">
-        <v>27.46199989318848</v>
+        <v>116.0199966430664</v>
       </c>
       <c r="H26">
-        <v>766266033</v>
+        <v>119792704</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>13954033680</v>
@@ -3780,22 +3672,22 @@
         <v>44286</v>
       </c>
       <c r="D27">
-        <v>529.9299926757812</v>
+        <v>139.6999969482422</v>
       </c>
       <c r="E27">
-        <v>513.469970703125</v>
+        <v>130.9400024414062</v>
       </c>
       <c r="F27">
-        <v>563.5599975585938</v>
+        <v>149.5</v>
       </c>
       <c r="G27">
-        <v>499</v>
+        <v>130.5200042724609</v>
       </c>
       <c r="H27">
-        <v>424926346</v>
+        <v>119792704</v>
       </c>
       <c r="I27" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>16078954038</v>
@@ -3908,22 +3800,22 @@
         <v>44377</v>
       </c>
       <c r="D28">
-        <v>46.47724219552952</v>
+        <v>140.8800048828125</v>
       </c>
       <c r="E28">
-        <v>48.50979995727539</v>
+        <v>135.4499969482422</v>
       </c>
       <c r="F28">
-        <v>48.75511095753174</v>
+        <v>153.7299957275391</v>
       </c>
       <c r="G28">
-        <v>45.85521015250949</v>
+        <v>130.0500030517578</v>
       </c>
       <c r="H28">
-        <v>3953196953</v>
+        <v>119792704</v>
       </c>
       <c r="I28" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>16506909896</v>
@@ -4036,22 +3928,22 @@
         <v>44469</v>
       </c>
       <c r="D29">
-        <v>138.916410444292</v>
+        <v>120.4000015258789</v>
       </c>
       <c r="E29">
-        <v>146.6503143310547</v>
+        <v>127.3499984741211</v>
       </c>
       <c r="F29">
-        <v>149.9494520691154</v>
+        <v>130.3600006103516</v>
       </c>
       <c r="G29">
-        <v>135.3627448332334</v>
+        <v>114.6500015258789</v>
       </c>
       <c r="H29">
-        <v>14840390000</v>
+        <v>119792704</v>
       </c>
       <c r="I29" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>14061163786</v>
@@ -4164,22 +4056,22 @@
         <v>44561</v>
       </c>
       <c r="D30">
-        <v>17.05999946594238</v>
+        <v>121.3199996948242</v>
       </c>
       <c r="E30">
-        <v>15.57999992370606</v>
+        <v>116.2600021362305</v>
       </c>
       <c r="F30">
-        <v>19.65999984741211</v>
+        <v>123.4599990844727</v>
       </c>
       <c r="G30">
-        <v>13.14000034332275</v>
+        <v>106</v>
       </c>
       <c r="H30">
-        <v>250599325</v>
+        <v>119792704</v>
       </c>
       <c r="I30" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>14280177293</v>
@@ -4292,22 +4184,22 @@
         <v>44651</v>
       </c>
       <c r="D31">
-        <v>151.2200012207031</v>
+        <v>108.5500030517578</v>
       </c>
       <c r="E31">
-        <v>119.3099975585938</v>
+        <v>114.2099990844727</v>
       </c>
       <c r="F31">
-        <v>161.6100006103516</v>
+        <v>118.4899978637695</v>
       </c>
       <c r="G31">
-        <v>118.879997253418</v>
+        <v>96.5500030517578</v>
       </c>
       <c r="H31">
-        <v>168459019</v>
+        <v>119792704</v>
       </c>
       <c r="I31" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>12598089799</v>
@@ -4420,22 +4312,22 @@
         <v>44742</v>
       </c>
       <c r="D32">
-        <v>3.200000047683716</v>
+        <v>106.25</v>
       </c>
       <c r="E32">
-        <v>3.930000066757202</v>
+        <v>123.379997253418</v>
       </c>
       <c r="F32">
-        <v>4.539999961853027</v>
+        <v>126.879997253418</v>
       </c>
       <c r="G32">
-        <v>3.109999895095825</v>
+        <v>97.97000122070312</v>
       </c>
       <c r="H32">
-        <v>448228270</v>
+        <v>119792704</v>
       </c>
       <c r="I32" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>12439221885</v>
@@ -4548,22 +4440,22 @@
         <v>44834</v>
       </c>
       <c r="D33">
-        <v>254.5</v>
+        <v>105.8199996948242</v>
       </c>
       <c r="E33">
-        <v>227.5399932861328</v>
+        <v>117.8300018310547</v>
       </c>
       <c r="F33">
-        <v>257.5</v>
+        <v>118.8300018310547</v>
       </c>
       <c r="G33">
-        <v>198.5899963378907</v>
+        <v>101.8199996948242</v>
       </c>
       <c r="H33">
-        <v>3325150886</v>
+        <v>119792704</v>
       </c>
       <c r="I33" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>12286983243</v>
@@ -4676,22 +4568,22 @@
         <v>44926</v>
       </c>
       <c r="D34">
-        <v>26.71999931335449</v>
+        <v>121.25</v>
       </c>
       <c r="E34">
-        <v>28.72999954223633</v>
+        <v>134.8800048828125</v>
       </c>
       <c r="F34">
-        <v>29.72999954223633</v>
+        <v>139.9100036621094</v>
       </c>
       <c r="G34">
-        <v>26.64999961853028</v>
+        <v>118.2099990844727</v>
       </c>
       <c r="H34">
-        <v>178998669</v>
+        <v>119792704</v>
       </c>
       <c r="I34" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>14101335159</v>
@@ -4804,22 +4696,22 @@
         <v>45016</v>
       </c>
       <c r="D35">
-        <v>261.1884929516806</v>
+        <v>127.2600021362305</v>
       </c>
       <c r="E35">
-        <v>225.4617156982422</v>
+        <v>125.7900009155273</v>
       </c>
       <c r="F35">
-        <v>262.5264343168398</v>
+        <v>130.2799987792969</v>
       </c>
       <c r="G35">
-        <v>223.9783523558658</v>
+        <v>120.620002746582</v>
       </c>
       <c r="H35">
-        <v>60498713</v>
+        <v>119792704</v>
       </c>
       <c r="I35" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>15164890521</v>
@@ -4932,22 +4824,22 @@
         <v>45107</v>
       </c>
       <c r="D36">
-        <v>18.42000007629395</v>
+        <v>142</v>
       </c>
       <c r="E36">
-        <v>19.04000091552734</v>
+        <v>145.8099975585938</v>
       </c>
       <c r="F36">
-        <v>19.38999938964844</v>
+        <v>152.0899963378906</v>
       </c>
       <c r="G36">
-        <v>17.57999992370605</v>
+        <v>135.75</v>
       </c>
       <c r="H36">
-        <v>260676335</v>
+        <v>119792704</v>
       </c>
       <c r="I36" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>16841699066</v>
@@ -5060,22 +4952,22 @@
         <v>45199</v>
       </c>
       <c r="D37">
-        <v>62.6169871617784</v>
+        <v>141.3800048828125</v>
       </c>
       <c r="E37">
-        <v>64.67326354980469</v>
+        <v>140.4199981689453</v>
       </c>
       <c r="F37">
-        <v>66.63478202323152</v>
+        <v>146.7899932861328</v>
       </c>
       <c r="G37">
-        <v>60.75970456328059</v>
+        <v>134.6100006103516</v>
       </c>
       <c r="H37">
-        <v>212968277</v>
+        <v>119792704</v>
       </c>
       <c r="I37" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>16836289334</v>
@@ -5188,22 +5080,22 @@
         <v>45291</v>
       </c>
       <c r="D38">
-        <v>1152.400024414062</v>
+        <v>173.9900054931641</v>
       </c>
       <c r="E38">
-        <v>1198.829956054688</v>
+        <v>180.6499938964844</v>
       </c>
       <c r="F38">
-        <v>1307.140014648438</v>
+        <v>185.0800018310547</v>
       </c>
       <c r="G38">
-        <v>1113.18994140625</v>
+        <v>165.7400054931641</v>
       </c>
       <c r="H38">
-        <v>24003656</v>
+        <v>119792704</v>
       </c>
       <c r="I38" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>20863062160</v>
@@ -5316,22 +5208,22 @@
         <v>45382</v>
       </c>
       <c r="D39">
-        <v>104.6600036621094</v>
+        <v>189.0899963378907</v>
       </c>
       <c r="E39">
-        <v>92.98000335693359</v>
+        <v>177.4400024414062</v>
       </c>
       <c r="F39">
-        <v>105.0100021362305</v>
+        <v>190.479995727539</v>
       </c>
       <c r="G39">
-        <v>90.66999816894533</v>
+        <v>173.8200073242188</v>
       </c>
       <c r="H39">
-        <v>168459019</v>
+        <v>119792704</v>
       </c>
       <c r="I39" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>22588231401</v>
@@ -5444,22 +5336,22 @@
         <v>45473</v>
       </c>
       <c r="D40">
-        <v>53.97000122070312</v>
+        <v>180.8300018310547</v>
       </c>
       <c r="E40">
-        <v>52.63999938964844</v>
+        <v>177.8500061035156</v>
       </c>
       <c r="F40">
-        <v>65.87999725341797</v>
+        <v>187.7799987792969</v>
       </c>
       <c r="G40">
-        <v>50.29000091552734</v>
+        <v>171.0899963378906</v>
       </c>
       <c r="H40">
-        <v>42689006</v>
+        <v>119792704</v>
       </c>
       <c r="I40" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>21753939714</v>
@@ -5572,22 +5464,22 @@
         <v>45565</v>
       </c>
       <c r="D41">
-        <v>36.50313191135645</v>
+        <v>180.0899963378906</v>
       </c>
       <c r="E41">
-        <v>39.63111877441406</v>
+        <v>185.3300018310547</v>
       </c>
       <c r="F41">
-        <v>41.15769383693995</v>
+        <v>190.8699951171875</v>
       </c>
       <c r="G41">
-        <v>34.26814654717644</v>
+        <v>174.7400054931641</v>
       </c>
       <c r="H41">
-        <v>171080665</v>
+        <v>119792704</v>
       </c>
       <c r="I41" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>21703630832</v>
@@ -5700,22 +5592,22 @@
         <v>45657</v>
       </c>
       <c r="D42">
-        <v>12.96000003814697</v>
+        <v>184.4100036621093</v>
       </c>
       <c r="E42">
-        <v>14.22000026702881</v>
+        <v>193.479995727539</v>
       </c>
       <c r="F42">
-        <v>15.34500026702881</v>
+        <v>195.229995727539</v>
       </c>
       <c r="G42">
-        <v>12.61999988555908</v>
+        <v>180.8200073242188</v>
       </c>
       <c r="H42">
-        <v>453568899</v>
+        <v>119792704</v>
       </c>
       <c r="I42" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>22088133940</v>
@@ -5828,22 +5720,22 @@
         <v>45747</v>
       </c>
       <c r="D43">
-        <v>187.8600006103516</v>
+        <v>154.1900024414062</v>
       </c>
       <c r="E43">
-        <v>184.4199981689453</v>
+        <v>154.9700012207031</v>
       </c>
       <c r="F43">
-        <v>198.3399963378907</v>
+        <v>158.4199981689453</v>
       </c>
       <c r="G43">
-        <v>161.3800048828125</v>
+        <v>133.3800048828125</v>
       </c>
       <c r="H43">
-        <v>10664912097</v>
+        <v>119792704</v>
       </c>
       <c r="I43" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>18644132833</v>
@@ -5956,22 +5848,22 @@
         <v>45838</v>
       </c>
       <c r="D44">
-        <v>105.0804770925983</v>
+        <v>171.7400054931641</v>
       </c>
       <c r="E44">
-        <v>103.1780242919922</v>
+        <v>214.8099975585937</v>
       </c>
       <c r="F44">
-        <v>109.3114367486601</v>
+        <v>219.6900024414062</v>
       </c>
       <c r="G44">
-        <v>101.4440230697358</v>
+        <v>170.1399993896484</v>
       </c>
       <c r="H44">
-        <v>199618386</v>
+        <v>119792704</v>
       </c>
       <c r="I44" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="J44">
         <v>20671812814</v>
